--- a/biology/Zoologie/Allosmaitia_fidena/Allosmaitia_fidena.xlsx
+++ b/biology/Zoologie/Allosmaitia_fidena/Allosmaitia_fidena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia fidena est une espèce d'insectes lépidoptères de la famille des Lycaenidae, sous-famille des Theclinae et du genre Allosmaitia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allosmaitia fidena a été décrit par William Chapman Hewitson en 1867, sous le nom initial de Thecla fidena[1].
-Noms vernaculaires
-Allosmaitia fidena se nomme Fidena Hairstreak en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia fidena a été décrit par William Chapman Hewitson en 1867, sous le nom initial de Thecla fidena.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia fidena se nomme Fidena Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allosmaitia_fidena</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_fidena</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia fidena est un petit papillon au corps bleu clair sur le dessus qui possède à chaque aile postérieure une queue longue et fines.
 Le dessus est marron avec une large plage bleu clair métallisé partant de la partie basale, allant jusqu'au bord externe aux ailes postérieures.
@@ -553,32 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Allosmaitia_fidena</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Allosmaitia_fidena</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -600,15 +625,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allosmaitia_fidena</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_fidena</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allosmaitia fidena est présent à Porto Rico, en République dominicaine, à Haïti et en Guyane[2],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia fidena est présent à Porto Rico, en République dominicaine, à Haïti et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allosmaitia_fidena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_fidena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Allosmaitia fidena, sur Wikimedia CommonsAllosmaitia fidena, sur Wikispecies
 </t>
